--- a/中二定數.xlsx
+++ b/中二定數.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morris\Desktop\BOT\discordbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E9B2A-6B04-4B7C-8FBB-9FAA93BB3788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A1B52-0ADB-41C9-AE05-0FCA8FD228D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="31" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.0" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1115">
   <si>
     <t>Pretender</t>
   </si>
@@ -3363,6 +3363,57 @@
   </si>
   <si>
     <t>GODLINESS</t>
+  </si>
+  <si>
+    <t>ホーリーサンバランド</t>
+  </si>
+  <si>
+    <t>AstrøNotes.</t>
+  </si>
+  <si>
+    <t>MALKUTH -The Last Ruler of Terrestrials-</t>
+  </si>
+  <si>
+    <t>DA’AT -The First Seeker of Souls-</t>
+  </si>
+  <si>
+    <t>DA’AT -The First Seeker of Souls-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キルミーのベイベー！</t>
+  </si>
+  <si>
+    <t>Rumbling hearts</t>
+  </si>
+  <si>
+    <t>非実在系女子達はどうすりゃいいですか？</t>
+  </si>
+  <si>
+    <t>恋ひ恋ふ縁</t>
+  </si>
+  <si>
+    <t>Transcend Lights</t>
+  </si>
+  <si>
+    <t>Let you DIVE!</t>
+  </si>
+  <si>
+    <t>Knight Rider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>Exitium</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>MALKUTH -The Last Ruler of Terrestrials-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4093,10 +4144,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4476,6 +4527,20 @@
         <v>27</v>
       </c>
       <c r="D27">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28">
         <v>11.9</v>
       </c>
     </row>
@@ -4487,10 +4552,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4898,6 +4963,34 @@
         <v>13</v>
       </c>
       <c r="D29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>12</v>
       </c>
     </row>
@@ -5203,9 +5296,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5556,6 +5651,20 @@
         <v>11</v>
       </c>
       <c r="D25">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
         <v>12.2</v>
       </c>
     </row>
@@ -5567,9 +5676,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6144,6 +6255,20 @@
         <v>2</v>
       </c>
       <c r="D41">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
         <v>12.3</v>
       </c>
     </row>
@@ -9537,10 +9662,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D42" sqref="A42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -10116,6 +10241,20 @@
         <v>27</v>
       </c>
       <c r="D41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42">
         <v>13</v>
       </c>
     </row>
@@ -10127,9 +10266,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10410,6 +10551,20 @@
         <v>13</v>
       </c>
       <c r="D20">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>13.1</v>
       </c>
     </row>
@@ -12367,9 +12522,11 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -12650,6 +12807,20 @@
         <v>13</v>
       </c>
       <c r="D20">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
         <v>13.6</v>
       </c>
     </row>
@@ -14779,9 +14950,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -15202,6 +15375,20 @@
         <v>13</v>
       </c>
       <c r="D30">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31">
         <v>13.9</v>
       </c>
     </row>
@@ -15829,10 +16016,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -16254,6 +16441,20 @@
         <v>27</v>
       </c>
       <c r="D30">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>14.1</v>
       </c>
     </row>
@@ -16265,9 +16466,11 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -16716,6 +16919,20 @@
         <v>13</v>
       </c>
       <c r="D32">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>14.2</v>
       </c>
     </row>
@@ -18003,10 +18220,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -18400,6 +18617,20 @@
         <v>27</v>
       </c>
       <c r="D28">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
         <v>14.5</v>
       </c>
     </row>
@@ -18411,10 +18642,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -18766,6 +18997,20 @@
         <v>13</v>
       </c>
       <c r="D25">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
         <v>14.6</v>
       </c>
     </row>
@@ -18777,10 +19022,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -19163,18 +19408,33 @@
         <v>14.7</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>14.7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -19778,6 +20038,34 @@
         <v>9</v>
       </c>
       <c r="D43">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
         <v>14.8</v>
       </c>
     </row>
@@ -20153,10 +20441,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -20578,6 +20866,20 @@
         <v>27</v>
       </c>
       <c r="D30">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>14.9</v>
       </c>
     </row>
@@ -20900,9 +21202,11 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -20945,6 +21249,20 @@
         <v>13</v>
       </c>
       <c r="D3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>15.3</v>
       </c>
     </row>
@@ -20956,9 +21274,11 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -21001,6 +21321,20 @@
         <v>13</v>
       </c>
       <c r="D3">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>15.4</v>
       </c>
     </row>
@@ -21992,9 +22326,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -22261,6 +22597,20 @@
         <v>2</v>
       </c>
       <c r="D19">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20">
         <v>11.6</v>
       </c>
     </row>
